--- a/برنامه نگهداری/برنامه نگهداری انبار ورق.xlsx
+++ b/برنامه نگهداری/برنامه نگهداری انبار ورق.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="18975" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="برش پلاسما M-PL006" sheetId="1" r:id="rId1"/>
@@ -83,8 +83,8 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
-    <customWorkbookView name="Vahid Pouladi - Personal View" guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="11"/>
-    <customWorkbookView name="Salar Mohebali - Personal View" guid="{78F90B63-348C-4803-8DD3-748B59237C45}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Vahid Pouladi - Personal View" guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="Salar Mohebali - Personal View" guid="{78F90B63-348C-4803-8DD3-748B59237C45}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -5713,7 +5713,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C00EFE50-08CD-4210-B864-F644AAE784C1}" diskRevisions="1" revisionId="853" version="31">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F4F56636-940A-47A4-B000-73F7BC1E9AA5}" diskRevisions="1" revisionId="897" version="6">
   <header guid="{5E75EE71-74F7-420A-847C-63421D1F8B7E}" dateTime="2021-03-06T09:42:02" maxSheetId="12" userName="Vahid Pouladi" r:id="rId1">
     <sheetIdMap count="11">
       <sheetId val="1"/>
@@ -6119,7 +6119,7 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
-  <header guid="{5D19ACCF-1A44-4003-8607-A2318113FF47}" dateTime="2021-03-06T15:11:30" maxSheetId="12" userName="Vahid Pouladi" r:id="rId28">
+  <header guid="{0746D6B6-FB1C-4429-A1A5-6C330D830535}" dateTime="2021-03-09T16:18:22" maxSheetId="12" userName="Salar Mohebali" r:id="rId28">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -6134,7 +6134,7 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
-  <header guid="{4B3209C5-39C2-4FA1-BD06-8DAD4E0E455C}" dateTime="2021-03-06T15:17:35" maxSheetId="12" userName="Vahid Pouladi" r:id="rId29">
+  <header guid="{034AF189-F4B8-46B9-A241-05F45A45146D}" dateTime="2021-03-09T16:19:07" maxSheetId="12" userName="Salar Mohebali" r:id="rId29">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -6149,7 +6149,7 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
-  <header guid="{74A60586-4875-412F-9CFF-94C4B0354967}" dateTime="2021-03-07T12:45:38" maxSheetId="12" userName="Vahid Pouladi" r:id="rId30">
+  <header guid="{BD849BDF-64C2-421C-94DC-974C549172F2}" dateTime="2021-03-09T16:19:28" maxSheetId="12" userName="Salar Mohebali" r:id="rId30">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -6164,7 +6164,37 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
-  <header guid="{C00EFE50-08CD-4210-B864-F644AAE784C1}" dateTime="2021-03-07T14:38:41" maxSheetId="12" userName="Vahid Pouladi" r:id="rId31">
+  <header guid="{2F9B520D-A5E6-4300-AF73-0CF9C0C302B2}" dateTime="2021-03-09T16:26:14" maxSheetId="12" userName="Salar Mohebali" r:id="rId31">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF6FF4F8-8899-4D77-B539-FD6C4A5B0752}" dateTime="2021-03-09T16:26:53" maxSheetId="12" userName="Vahid Pouladi" r:id="rId32">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4F56636-940A-47A4-B000-73F7BC1E9AA5}" dateTime="2021-03-09T16:32:41" maxSheetId="12" userName="Vahid Pouladi" r:id="rId33">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -8715,191 +8745,191 @@
 
 <file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'برش پلاسما M-PL006'!$A$2:$K$24</formula>
     <oldFormula>'برش پلاسما M-PL006'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'برش پلاسما M-PL006'!$E:$G</formula>
     <oldFormula>'برش پلاسما M-PL006'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'فن M-FN014'!$A$2:$K$24</formula>
     <oldFormula>'فن M-FN014'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'فن M-FN014'!$E:$G</formula>
     <oldFormula>'فن M-FN014'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'اره آتشی M-AR009'!$A$2:$K$24</formula>
     <oldFormula>'اره آتشی M-AR009'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'اره آتشی M-AR009'!$E:$G</formula>
     <oldFormula>'اره آتشی M-AR009'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'درایر M-RG003'!$A$2:$K$24</formula>
     <oldFormula>'درایر M-RG003'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'درایر M-RG003'!$E:$G</formula>
     <oldFormula>'درایر M-RG003'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'درایر M-RG004'!$A$2:$K$24</formula>
     <oldFormula>'درایر M-RG004'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'درایر M-RG004'!$E:$G</formula>
     <oldFormula>'درایر M-RG004'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 10 تن E-JA070'!$E:$G</formula>
     <oldFormula>'جرثقیل 10 تن E-JA070'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA071'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA071'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA072'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA072'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="9" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="9" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA073'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA073'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA074'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA074'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA075'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA075'!$E:$G</oldFormula>
   </rdn>
-  <rcv guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" action="add"/>
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'برش پلاسما M-PL006'!$A$2:$K$24</formula>
     <oldFormula>'برش پلاسما M-PL006'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'برش پلاسما M-PL006'!$E:$G</formula>
     <oldFormula>'برش پلاسما M-PL006'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'فن M-FN014'!$A$2:$K$24</formula>
     <oldFormula>'فن M-FN014'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'فن M-FN014'!$E:$G</formula>
     <oldFormula>'فن M-FN014'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'اره آتشی M-AR009'!$A$2:$K$24</formula>
     <oldFormula>'اره آتشی M-AR009'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'اره آتشی M-AR009'!$E:$G</formula>
     <oldFormula>'اره آتشی M-AR009'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'درایر M-RG003'!$A$2:$K$24</formula>
     <oldFormula>'درایر M-RG003'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'درایر M-RG003'!$E:$G</formula>
     <oldFormula>'درایر M-RG003'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'درایر M-RG004'!$A$2:$K$24</formula>
     <oldFormula>'درایر M-RG004'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="5" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'درایر M-RG004'!$E:$G</formula>
     <oldFormula>'درایر M-RG004'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="6" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 10 تن E-JA070'!$E:$G</formula>
     <oldFormula>'جرثقیل 10 تن E-JA070'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="7" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA071'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA071'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="8" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA072'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA072'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="9" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="9" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA073'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA073'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="10" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA074'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA074'!$E:$G</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</formula>
     <oldFormula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="11" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>'جرثقیل 5 تن E-JA075'!$E:$G</formula>
     <oldFormula>'جرثقیل 5 تن E-JA075'!$E:$G</oldFormula>
   </rdn>
-  <rcv guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" action="add"/>
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="add"/>
 </revisions>
 </file>
 
@@ -9200,6 +9230,196 @@
 
 <file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'برش پلاسما M-PL006'!$A$2:$K$24</formula>
+    <oldFormula>'برش پلاسما M-PL006'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'برش پلاسما M-PL006'!$E:$G</formula>
+    <oldFormula>'برش پلاسما M-PL006'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'فن M-FN014'!$A$2:$K$24</formula>
+    <oldFormula>'فن M-FN014'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'فن M-FN014'!$E:$G</formula>
+    <oldFormula>'فن M-FN014'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'اره آتشی M-AR009'!$A$2:$K$24</formula>
+    <oldFormula>'اره آتشی M-AR009'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'اره آتشی M-AR009'!$E:$G</formula>
+    <oldFormula>'اره آتشی M-AR009'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG003'!$A$2:$K$24</formula>
+    <oldFormula>'درایر M-RG003'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG003'!$E:$G</formula>
+    <oldFormula>'درایر M-RG003'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG004'!$A$2:$K$24</formula>
+    <oldFormula>'درایر M-RG004'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG004'!$E:$G</formula>
+    <oldFormula>'درایر M-RG004'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 10 تن E-JA070'!$E:$G</formula>
+    <oldFormula>'جرثقیل 10 تن E-JA070'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA071'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA071'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA072'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA072'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA073'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA073'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA074'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA074'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA075'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA075'!$E:$G</oldFormula>
+  </rdn>
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'برش پلاسما M-PL006'!$A$2:$K$24</formula>
+    <oldFormula>'برش پلاسما M-PL006'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'برش پلاسما M-PL006'!$E:$G</formula>
+    <oldFormula>'برش پلاسما M-PL006'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'فن M-FN014'!$A$2:$K$24</formula>
+    <oldFormula>'فن M-FN014'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'فن M-FN014'!$E:$G</formula>
+    <oldFormula>'فن M-FN014'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'اره آتشی M-AR009'!$A$2:$K$24</formula>
+    <oldFormula>'اره آتشی M-AR009'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'اره آتشی M-AR009'!$E:$G</formula>
+    <oldFormula>'اره آتشی M-AR009'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG003'!$A$2:$K$24</formula>
+    <oldFormula>'درایر M-RG003'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG003'!$E:$G</formula>
+    <oldFormula>'درایر M-RG003'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG004'!$A$2:$K$24</formula>
+    <oldFormula>'درایر M-RG004'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'درایر M-RG004'!$E:$G</formula>
+    <oldFormula>'درایر M-RG004'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 10 تن E-JA070'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="6" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 10 تن E-JA070'!$E:$G</formula>
+    <oldFormula>'جرثقیل 10 تن E-JA070'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA071'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA071'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA071'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA072'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA072'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA072'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA073'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="9" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA073'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA073'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA074'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA074'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA074'!$E:$G</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA075'!$A$2:$K$24</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_78F90B63_348C_4803_8DD3_748B59237C45_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'جرثقیل 5 تن E-JA075'!$E:$G</formula>
+    <oldFormula>'جرثقیل 5 تن E-JA075'!$E:$G</oldFormula>
+  </rdn>
+  <rcv guid="{78F90B63-348C-4803-8DD3-748B59237C45}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" action="delete"/>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
     <formula>'برش پلاسما M-PL006'!$A$2:$K$24</formula>
@@ -9293,7 +9513,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" action="delete"/>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_BE66E51E_7B37_43D5_91BF_AE9392A5EBAA_.wvu.PrintArea" hidden="1" oldHidden="1">
@@ -10833,14 +11053,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
-  <userInfo guid="{962A09D3-94B5-48EB-92C3-4CE03942726E}" name="Salar Mohebali" id="-2114941326" dateTime="2021-03-06T11:03:09"/>
-  <userInfo guid="{962A09D3-94B5-48EB-92C3-4CE03942726E}" name="Salar Mohebali" id="-2114939013" dateTime="2021-03-06T11:03:46"/>
-  <userInfo guid="{962A09D3-94B5-48EB-92C3-4CE03942726E}" name="Salar Mohebali" id="-2114937359" dateTime="2021-03-06T11:04:12"/>
-  <userInfo guid="{8E83D43A-E5F9-419F-9E98-8200A1D3D050}" name="Salar Mohebali" id="-2114935480" dateTime="2021-03-06T11:04:42"/>
-  <userInfo guid="{8E83D43A-E5F9-419F-9E98-8200A1D3D050}" name="Salar Mohebali" id="-2114934928" dateTime="2021-03-06T11:04:51"/>
-</users>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11133,7 +11347,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -11549,11 +11763,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" hiddenColumns="1" topLeftCell="A2">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A2">
       <selection activeCell="N10" sqref="N10"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -11613,9 +11827,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12050,17 +12261,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" hiddenColumns="1">
+    <customSheetView guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" scale="90" showPageBreaks="1" printArea="1" hiddenColumns="1">
       <selection activeCell="N16" sqref="N16"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -12122,7 +12333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -12560,11 +12771,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -13042,11 +13253,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="90" hiddenColumns="1">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -13494,11 +13705,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -13966,11 +14177,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -14438,11 +14649,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
-      <selection activeCell="H14" sqref="H14"/>
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -14942,11 +15153,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -15446,11 +15657,11 @@
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -15510,9 +15721,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -15947,17 +16155,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" hiddenColumns="1">
+    <customSheetView guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" scale="90" showPageBreaks="1" printArea="1" hiddenColumns="1">
       <selection activeCell="M18" sqref="M18"/>
-      <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+      <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
@@ -16009,17 +16217,14 @@
     <mergeCell ref="J22:K22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -16454,17 +16659,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" scale="90" showPageBreaks="1" fitToPage="1" printArea="1" hiddenColumns="1">
+    <customSheetView guid="{BE66E51E-7B37-43D5-91BF-AE9392A5EBAA}" scale="90" showPageBreaks="1" printArea="1" hiddenColumns="1">
       <selection activeCell="P17" sqref="P17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageLayout">
+    <customSheetView guid="{78F90B63-348C-4803-8DD3-748B59237C45}" scale="60" showPageBreaks="1" printArea="1" hiddenColumns="1" view="pageBreakPreview">
       <selection activeCell="H14" sqref="H14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="46">
